--- a/app/forms/sample/sample.xlsx
+++ b/app/forms/sample/sample.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1335CFD6-397A-4766-9EA3-E051621A6FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF6001-9304-4C39-96B3-5F8E4AF7F4BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>branch_label</t>
   </si>
@@ -139,13 +144,79 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>extra_question1</t>
+  </si>
+  <si>
+    <t>extra_question2</t>
+  </si>
+  <si>
+    <t>extra_question3</t>
+  </si>
+  <si>
+    <t>extra_question4</t>
+  </si>
+  <si>
+    <t>extra_question5</t>
+  </si>
+  <si>
+    <t>extra_question6</t>
+  </si>
+  <si>
+    <t>extra_question7</t>
+  </si>
+  <si>
+    <t>extra_question8</t>
+  </si>
+  <si>
+    <t>extra_question9</t>
+  </si>
+  <si>
+    <t>extra_question10</t>
+  </si>
+  <si>
+    <t>extra_question11</t>
+  </si>
+  <si>
+    <t>extra_question12</t>
+  </si>
+  <si>
+    <t>extra_question13</t>
+  </si>
+  <si>
+    <t>extra_question14</t>
+  </si>
+  <si>
+    <t>extra_question15</t>
+  </si>
+  <si>
+    <t>extra_question16</t>
+  </si>
+  <si>
+    <t>extra_question17</t>
+  </si>
+  <si>
+    <t>extra_question18</t>
+  </si>
+  <si>
+    <t>extra_question19</t>
+  </si>
+  <si>
+    <t>extra_question20</t>
+  </si>
+  <si>
+    <t>end if</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -590,36 +661,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="79.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +766,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="2:32" ht="25.35" customHeight="1">
+    <row r="2" spans="2:32" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
@@ -712,32 +784,191 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="2:32">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AF3" s="4"/>
     </row>
-    <row r="7" spans="2:32" s="2" customFormat="1">
+    <row r="7" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="11" spans="2:32">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="14" spans="2:32" ht="10.5" customHeight="1">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="2:32" ht="10.5" customHeight="1">
+    <row r="15" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="2:32">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="19" spans="21:21">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
       <c r="U19" s="5"/>
     </row>
-    <row r="24" spans="21:21" ht="17.649999999999999" customHeight="1"/>
-    <row r="25" spans="21:21" ht="17.649999999999999" customHeight="1"/>
-    <row r="26" spans="21:21" ht="17.649999999999999" customHeight="1"/>
-    <row r="27" spans="21:21" ht="17.649999999999999" customHeight="1"/>
-    <row r="28" spans="21:21" ht="12.75" customHeight="1"/>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -756,13 +987,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -773,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
@@ -781,7 +1012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -789,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -797,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -823,9 +1054,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -836,7 +1067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>

--- a/app/forms/sample/sample.xlsx
+++ b/app/forms/sample/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angaleenadesalingam/Desktop/Higgs Folder/2019/PhD/Experiments/Sentinel/Sentinel v2/Charlie's to Angalee's versions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E44B4-CE1C-D44B-B2EC-7DDB7FD65C8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04058076-C7AC-4CF4-8DC3-19CBA0F523A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="900" windowWidth="24640" windowHeight="14000" xr2:uid="{6686DD10-700B-DF4E-AE1B-53EF63E904B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6686DD10-700B-DF4E-AE1B-53EF63E904B0}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="150">
   <si>
     <t>setting_name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>survey</t>
   </si>
   <si>
-    <t>New Sample</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>sample_id_4_notes</t>
+  </si>
+  <si>
+    <t>New Biological Sample</t>
   </si>
 </sst>
 </file>
@@ -881,85 +881,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062E6353-8004-1B44-BF1A-0CF520BEB4E2}">
   <dimension ref="B1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A17" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
       </c>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -968,487 +968,507 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E5" s="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
         <v>104</v>
-      </c>
-      <c r="H9" t="s">
-        <v>105</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
         <v>129</v>
       </c>
-      <c r="L28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="L50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" t="s">
         <v>34</v>
       </c>
-      <c r="G36" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" t="s">
+        <v>111</v>
+      </c>
+      <c r="L61" t="s">
         <v>112</v>
       </c>
-      <c r="L38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
         <v>145</v>
       </c>
-      <c r="H40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" t="s">
+        <v>148</v>
+      </c>
+      <c r="H74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" t="s">
-        <v>112</v>
-      </c>
-      <c r="L50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" t="s">
-        <v>112</v>
-      </c>
-      <c r="L61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>147</v>
-      </c>
-      <c r="H70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" t="s">
-        <v>148</v>
-      </c>
-      <c r="H72" t="s">
-        <v>112</v>
-      </c>
-      <c r="L72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" t="s">
-        <v>149</v>
-      </c>
-      <c r="H74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1465,25 +1485,25 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1495,17 +1515,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFD4045-09BA-F048-8300-40B2ED4FA6BD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1532,20 +1552,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1555,338 +1575,426 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE08F7F1-B545-C64B-9697-361C962F2BA3}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
